--- a/data/trans_dic/P2B_2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P2B_2-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con movilidad a otra vivienda por motivos laborales</t>
+          <t>Población con movilidad a otra vivienda por motivos laborales (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -601,32 +602,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>12,16%</t>
+          <t>0,62%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>21,97%</t>
+          <t>0,81%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>22,77%</t>
+          <t>1,68%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>19,08%</t>
+          <t>1,38%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>18,16%</t>
+          <t>1,12%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>20,11%</t>
+          <t>1,08%</t>
         </is>
       </c>
     </row>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 48,37</t>
+          <t>0,0; 3,11</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 81,54</t>
+          <t>0,0; 4,42</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,67; 56,27</t>
+          <t>0,47; 4,5</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 52,79</t>
+          <t>0,0; 4,28</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,79; 38,03</t>
+          <t>0,29; 2,76</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,36; 46,79</t>
+          <t>0,29; 2,91</t>
         </is>
       </c>
     </row>
@@ -681,32 +682,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>18,25%</t>
+          <t>1,09%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>19,39%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>43,75%</t>
+          <t>2,54%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>46,04%</t>
+          <t>3,14%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>30,29%</t>
+          <t>1,79%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>28,66%</t>
+          <t>2,67%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 51,75</t>
+          <t>0,0; 3,42</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,65; 43,34</t>
+          <t>0,6; 5,58</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>15,92; 72,45</t>
+          <t>0,92; 5,62</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>20,27; 71,44</t>
+          <t>1,35; 6,65</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>14,15; 49,64</t>
+          <t>0,81; 3,68</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>11,34; 45,61</t>
+          <t>1,29; 4,7</t>
         </is>
       </c>
     </row>
@@ -761,32 +762,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>30,71%</t>
+          <t>1,81%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>8,25%</t>
+          <t>0,88%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>26,19%</t>
+          <t>1,16%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>24,72%</t>
+          <t>1,81%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>28,74%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>15,5%</t>
+          <t>1,35%</t>
         </is>
       </c>
     </row>
@@ -799,32 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>11,9; 57,13</t>
+          <t>0,64; 3,99</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 32,25</t>
+          <t>0,0; 3,1</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10,55; 53,78</t>
+          <t>0,32; 2,7</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,78; 51,9</t>
+          <t>0,7; 4,01</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>15,07; 46,35</t>
+          <t>0,65; 2,65</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,4; 30,19</t>
+          <t>0,56; 2,64</t>
         </is>
       </c>
     </row>
@@ -846,27 +847,27 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>16,92%</t>
+          <t>0,79%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>28,33%</t>
+          <t>0,79%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>10,26%</t>
+          <t>0,71%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>10,06%</t>
+          <t>0,42%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>12,99%</t>
+          <t>0,75%</t>
         </is>
       </c>
     </row>
@@ -879,32 +880,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 10,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 46,8</t>
+          <t>0,0; 2,6</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,79; 58,91</t>
+          <t>0,22; 2,12</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 30,49</t>
+          <t>0,0; 2,15</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,8; 25,27</t>
+          <t>0,12; 1,15</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,29; 29,14</t>
+          <t>0,18; 1,83</t>
         </is>
       </c>
     </row>
@@ -921,7 +922,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>27,83%</t>
+          <t>0,36%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -941,7 +942,7 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>5,29%</t>
+          <t>0,18%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -959,32 +960,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>0,0; 1,75</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 30,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 13,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 15,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 22,13</t>
+          <t>0,0; 1,08</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 11,15</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1040,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 13,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 26,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 11,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 11,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 6,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 8,64</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1081,32 +1082,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>13,22%</t>
+          <t>0,68%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>12,78%</t>
+          <t>0,81%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>19,35%</t>
+          <t>0,96%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>16,36%</t>
+          <t>1,12%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>16,3%</t>
+          <t>0,82%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>14,68%</t>
+          <t>0,97%</t>
         </is>
       </c>
     </row>
@@ -1119,32 +1120,39 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>6,44; 22,98</t>
+          <t>0,32; 1,28</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,05; 24,32</t>
+          <t>0,4; 1,48</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>11,21; 28,79</t>
+          <t>0,58; 1,55</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>9,63; 25,89</t>
+          <t>0,63; 1,82</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>11,23; 23,03</t>
+          <t>0,55; 1,21</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>9,37; 21,6</t>
+          <t>0,62; 1,45</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1164,4 +1172,952 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con movilidad a otra vivienda por motivos laborales (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>3190</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>4062</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>7777</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>6469</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>10968</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>10532</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 15940</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 22174</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>2173; 20830</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 20076</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>2798; 26980</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>2835; 28240</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>6144</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>12862</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>13179</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>16280</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>19323</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>29142</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 19260</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>3439; 31967</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>4776; 29152</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>7023; 34507</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>8749; 39832</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>14102; 51323</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>12221</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>6042</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>8064</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>12874</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>20284</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>18916</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>4356; 26984</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 21294</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2218; 18726</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>4980; 28601</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>8882; 36255</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>7787; 36904</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>5083</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>5580</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>4879</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>5580</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>9962</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0; 16839</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1554; 14911</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>0; 14729</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>1566; 15426</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>2447; 24413</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>1866</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>1866</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 8948</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 10916</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>23421</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>28049</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>34600</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>40502</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>58021</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>68551</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>11192; 44179</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>13765; 50933</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>20821; 56042</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>22759; 65854</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>38843; 85386</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>43861; 102487</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>